--- a/Pop*/manuscripts/Dissertation/Pop Star Dissertation_June 14, 2018_12.25.xlsx
+++ b/Pop*/manuscripts/Dissertation/Pop Star Dissertation_June 14, 2018_12.25.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/norkish/git/pop-star/Pop*/manuscripts/Dissertation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCB63C2F-A454-094F-A93C-C204A81B23AB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14E6620-A4E9-8849-A4BE-7608790C9AF8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
+    <workbookView xWindow="4800" yWindow="2260" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pop Star Dissertation_June 14, " sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="644">
   <si>
     <t>StartDate</t>
   </si>
@@ -1954,12 +1954,15 @@
   </si>
   <si>
     <t>blac</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2479,16 +2482,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2849,14 +2852,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DH162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <pane xSplit="17120" ySplit="1400" topLeftCell="DC29" activePane="bottomRight"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <pane xSplit="17120" ySplit="1400" topLeftCell="DC129" activePane="bottomLeft"/>
       <selection activeCell="M1" sqref="M1"/>
       <selection pane="topRight" activeCell="DB2" sqref="DB2"/>
-      <selection pane="bottomLeft" activeCell="O135" sqref="O135"/>
+      <selection pane="bottomLeft" activeCell="T141" sqref="T141"/>
       <selection pane="bottomRight" activeCell="DG87" sqref="DG87"/>
     </sheetView>
   </sheetViews>
@@ -16549,7 +16552,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="120" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:111" ht="64" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>43265.464097222219</v>
       </c>
@@ -17641,10 +17644,6 @@
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="H130" s="1"/>
-      <c r="Q130" t="b">
-        <f>ISERROR(R$4:R128)</f>
-        <v>1</v>
-      </c>
       <c r="R130" s="4" t="s">
         <v>613</v>
       </c>
@@ -17919,359 +17918,359 @@
       </c>
       <c r="R131" s="6">
         <f>SUMIFS(R$4:R128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="S131" s="6">
         <f>SUMIFS(S$4:S128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="T131" s="6">
         <f>SUMIFS(T$4:T128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="U131" s="6">
         <f>SUMIFS(U$4:U128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="V131" s="6">
         <f>SUMIFS(V$4:V128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="W131" s="6">
         <f>SUMIFS(W$4:W128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="X131" s="6">
         <f>SUMIFS(X$4:X128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="Y131" s="6">
         <f>SUMIFS(Y$4:Y128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="Z131" s="6">
         <f>SUMIFS(Z$4:Z128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="AA131" s="6">
         <f>SUMIFS(AA$4:AA128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="AB131" s="6">
         <f>SUMIFS(AB$4:AB128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="AC131" s="6">
         <f>SUMIFS(AC$4:AC128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="AD131" s="6">
         <f>SUMIFS(AD$4:AD128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="AE131" s="6">
         <f>SUMIFS(AE$4:AE128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="AF131" s="6">
         <f>SUMIFS(AF$4:AF128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="AG131" s="6">
         <f>SUMIFS(AG$4:AG128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="AH131" s="6">
         <f>SUMIFS(AH$4:AH128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="AI131" s="6">
         <f>SUMIFS(AI$4:AI128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="AJ131" s="6">
         <f>SUMIFS(AJ$4:AJ128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="AK131" s="6">
         <f>SUMIFS(AK$4:AK128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="AL131" s="6">
         <f>SUMIFS(AL$4:AL128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="AM131" s="6">
         <f>SUMIFS(AM$4:AM128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="AN131" s="6">
         <f>SUMIFS(AN$4:AN128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="AO131" s="6">
         <f>SUMIFS(AO$4:AO128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="AP131" s="6">
         <f>SUMIFS(AP$4:AP128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="AQ131" s="6">
         <f>SUMIFS(AQ$4:AQ128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="AR131" s="6">
         <f>SUMIFS(AR$4:AR128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="AS131" s="6">
         <f>SUMIFS(AS$4:AS128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="AT131" s="6">
         <f>SUMIFS(AT$4:AT128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="AU131" s="6">
         <f>SUMIFS(AU$4:AU128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="AV131" s="6">
         <f>SUMIFS(AV$4:AV128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="AW131" s="6">
         <f>SUMIFS(AW$4:AW128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="AX131" s="6">
         <f>SUMIFS(AX$4:AX128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="AY131" s="6">
         <f>SUMIFS(AY$4:AY128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="AZ131" s="6">
         <f>SUMIFS(AZ$4:AZ128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="BA131" s="6">
         <f>SUMIFS(BA$4:BA128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="BB131" s="6">
         <f>SUMIFS(BB$4:BB128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="BC131" s="6">
         <f>SUMIFS(BC$4:BC128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="BD131" s="6">
         <f>SUMIFS(BD$4:BD128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="BE131" s="6">
         <f>SUMIFS(BE$4:BE128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="BF131" s="6">
         <f>SUMIFS(BF$4:BF128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="BG131" s="6">
         <f>SUMIFS(BG$4:BG128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="BH131" s="6">
         <f>SUMIFS(BH$4:BH128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="BI131" s="6">
         <f>SUMIFS(BI$4:BI128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="BJ131" s="6">
         <f>SUMIFS(BJ$4:BJ128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="BK131" s="6">
         <f>SUMIFS(BK$4:BK128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="BL131" s="6">
         <f>SUMIFS(BL$4:BL128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="BM131" s="6">
         <f>SUMIFS(BM$4:BM128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="BN131" s="6">
         <f>SUMIFS(BN$4:BN128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="BO131" s="6">
         <f>SUMIFS(BO$4:BO128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="BP131" s="6">
         <f>SUMIFS(BP$4:BP128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="BQ131" s="6">
         <f>SUMIFS(BQ$4:BQ128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="BR131" s="6">
         <f>SUMIFS(BR$4:BR128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="BS131" s="6">
         <f>SUMIFS(BS$4:BS128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="BT131" s="6">
         <f>SUMIFS(BT$4:BT128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="BU131" s="6">
         <f>SUMIFS(BU$4:BU128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="BV131" s="6">
         <f>SUMIFS(BV$4:BV128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="BW131" s="6">
         <f>SUMIFS(BW$4:BW128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="BX131" s="6">
         <f>SUMIFS(BX$4:BX128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="BY131" s="6">
         <f>SUMIFS(BY$4:BY128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="BZ131" s="6">
         <f>SUMIFS(BZ$4:BZ128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="CA131" s="6">
         <f>SUMIFS(CA$4:CA128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="CB131" s="6">
         <f>SUMIFS(CB$4:CB128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="CC131" s="6">
         <f>SUMIFS(CC$4:CC128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="CD131" s="6">
         <f>SUMIFS(CD$4:CD128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="CE131" s="6">
         <f>SUMIFS(CE$4:CE128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="CF131" s="6">
         <f>SUMIFS(CF$4:CF128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="CG131" s="6">
         <f>SUMIFS(CG$4:CG128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="CH131" s="6">
         <f>SUMIFS(CH$4:CH128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="CI131" s="6">
         <f>SUMIFS(CI$4:CI128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="CJ131" s="6">
         <f>SUMIFS(CJ$4:CJ128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="CK131" s="6">
         <f>SUMIFS(CK$4:CK128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="CL131" s="6">
         <f>SUMIFS(CL$4:CL128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="CM131" s="6">
         <f>SUMIFS(CM$4:CM128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="CN131" s="6">
         <f>SUMIFS(CN$4:CN128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="CO131" s="6">
         <f>SUMIFS(CO$4:CO128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="CP131" s="6">
         <f>SUMIFS(CP$4:CP128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="CQ131" s="6">
         <f>SUMIFS(CQ$4:CQ128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="CR131" s="6">
         <f>SUMIFS(CR$4:CR128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="CS131" s="6">
         <f>SUMIFS(CS$4:CS128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="CT131" s="6">
         <f>SUMIFS(CT$4:CT128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="CU131" s="6">
         <f>SUMIFS(CU$4:CU128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="CV131" s="6">
         <f>SUMIFS(CV$4:CV128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="CW131" s="6">
         <f>SUMIFS(CW$4:CW128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="CX131" s="6">
         <f>SUMIFS(CX$4:CX128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>57</v>
+        <v>411</v>
       </c>
       <c r="CY131" s="6">
         <f>SUMIFS(CY$4:CY128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>48</v>
+        <v>346</v>
       </c>
       <c r="CZ131" s="6">
         <f>SUMIFS(CZ$4:CZ128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>58</v>
+        <v>408</v>
       </c>
       <c r="DA131" s="6">
         <f>SUMIFS(DA$4:DA128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>46</v>
+        <v>341</v>
       </c>
       <c r="DB131" s="6">
         <f>SUMIFS(DB$4:DB128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>54</v>
+        <v>422</v>
       </c>
     </row>
     <row r="132" spans="1:106" x14ac:dyDescent="0.2">
@@ -18650,275 +18649,275 @@
       </c>
       <c r="R133">
         <f>AVERAGEIFS(R$4:R128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3.5</v>
+        <v>2.6842105263157894</v>
       </c>
       <c r="S133">
         <f>AVERAGEIFS(S$4:S128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2.5</v>
+        <v>2.263157894736842</v>
       </c>
       <c r="T133">
         <f>AVERAGEIFS(T$4:T128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3.25</v>
+        <v>2.736842105263158</v>
       </c>
       <c r="U133">
         <f>AVERAGEIFS(U$4:U128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3.5</v>
+        <v>2.8421052631578947</v>
       </c>
       <c r="V133">
         <f>AVERAGEIFS(V$4:V128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2.5</v>
+        <v>2.6842105263157894</v>
       </c>
       <c r="W133">
         <f>AVERAGEIFS(W$4:W128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4.5</v>
+        <v>3.6842105263157894</v>
       </c>
       <c r="X133">
         <f>AVERAGEIFS(X$4:X128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>2.736842105263158</v>
       </c>
       <c r="Y133">
         <f>AVERAGEIFS(Y$4:Y128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="Z133">
         <f>AVERAGEIFS(Z$4:Z128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA133">
         <f>AVERAGEIFS(AA$4:AA128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>5</v>
+        <v>3.125</v>
       </c>
       <c r="AB133">
         <f>AVERAGEIFS(AB$4:AB128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>5</v>
+        <v>3.3125</v>
       </c>
       <c r="AC133">
         <f>AVERAGEIFS(AC$4:AC128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AD133">
         <f>AVERAGEIFS(AD$4:AD128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>3.3125</v>
       </c>
       <c r="AE133">
         <f>AVERAGEIFS(AE$4:AE128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>5</v>
+        <v>3.125</v>
       </c>
       <c r="AF133">
         <f>AVERAGEIFS(AF$4:AF128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>2.4761904761904763</v>
       </c>
       <c r="AG133">
         <f>AVERAGEIFS(AG$4:AG128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>2.6190476190476191</v>
       </c>
       <c r="AH133">
         <f>AVERAGEIFS(AH$4:AH128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>2.7619047619047619</v>
       </c>
       <c r="AI133">
         <f>AVERAGEIFS(AI$4:AI128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>2.5714285714285716</v>
       </c>
       <c r="AJ133">
         <f>AVERAGEIFS(AJ$4:AJ128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>2.7142857142857144</v>
       </c>
       <c r="AK133">
         <f>AVERAGEIFS(AK$4:AK128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>5</v>
+        <v>3.7619047619047619</v>
       </c>
       <c r="AL133">
         <f>AVERAGEIFS(AL$4:AL128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>2.8095238095238093</v>
       </c>
       <c r="AM133">
         <f>AVERAGEIFS(AM$4:AM128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3.5</v>
+        <v>2.7083333333333335</v>
       </c>
       <c r="AN133">
         <f>AVERAGEIFS(AN$4:AN128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>1.9583333333333333</v>
       </c>
       <c r="AO133">
         <f>AVERAGEIFS(AO$4:AO128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3.5</v>
+        <v>3.0833333333333335</v>
       </c>
       <c r="AP133">
         <f>AVERAGEIFS(AP$4:AP128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="AQ133">
         <f>AVERAGEIFS(AQ$4:AQ128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AR133">
         <f>AVERAGEIFS(AR$4:AR128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>3.0416666666666665</v>
       </c>
       <c r="AS133">
         <f>AVERAGEIFS(AS$4:AS128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2.5</v>
+        <v>3.2916666666666665</v>
       </c>
       <c r="AT133">
         <f>AVERAGEIFS(AT$4:AT128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>2.7894736842105261</v>
       </c>
       <c r="AU133">
         <f>AVERAGEIFS(AU$4:AU128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2.5</v>
+        <v>2.3157894736842106</v>
       </c>
       <c r="AV133">
         <f>AVERAGEIFS(AV$4:AV128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>3.1578947368421053</v>
       </c>
       <c r="AW133">
         <f>AVERAGEIFS(AW$4:AW128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>2.8421052631578947</v>
       </c>
       <c r="AX133">
         <f>AVERAGEIFS(AX$4:AX128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>2.8947368421052633</v>
       </c>
       <c r="AY133">
         <f>AVERAGEIFS(AY$4:AY128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>3.3157894736842106</v>
       </c>
       <c r="AZ133">
         <f>AVERAGEIFS(AZ$4:AZ128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>3.1578947368421053</v>
       </c>
       <c r="BA133">
         <f>AVERAGEIFS(BA$4:BA128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="BB133">
         <f>AVERAGEIFS(BB$4:BB128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="BC133">
         <f>AVERAGEIFS(BC$4:BC128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="BD133">
         <f>AVERAGEIFS(BD$4:BD128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="BE133">
         <f>AVERAGEIFS(BE$4:BE128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3.5</v>
+        <v>2.95</v>
       </c>
       <c r="BF133">
         <f>AVERAGEIFS(BF$4:BF128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="BG133">
         <f>AVERAGEIFS(BG$4:BG128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="BH133">
         <f>AVERAGEIFS(BH$4:BH128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>3.1666666666666665</v>
       </c>
       <c r="BI133">
         <f>AVERAGEIFS(BI$4:BI128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3.2</v>
+        <v>2.4166666666666665</v>
       </c>
       <c r="BJ133">
         <f>AVERAGEIFS(BJ$4:BJ128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4.2</v>
+        <v>3.5416666666666665</v>
       </c>
       <c r="BK133">
         <f>AVERAGEIFS(BK$4:BK128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4.2</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="BL133">
         <f>AVERAGEIFS(BL$4:BL128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3.8</v>
+        <v>3.125</v>
       </c>
       <c r="BM133">
         <f>AVERAGEIFS(BM$4:BM128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3.2</v>
+        <v>3.2083333333333335</v>
       </c>
       <c r="BN133">
         <f>AVERAGEIFS(BN$4:BN128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>3.2916666666666665</v>
       </c>
       <c r="BO133">
         <f>AVERAGEIFS(BO$4:BO128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>2.5555555555555554</v>
       </c>
       <c r="BP133">
         <f>AVERAGEIFS(BP$4:BP128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="BQ133">
         <f>AVERAGEIFS(BQ$4:BQ128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>5</v>
+        <v>2.8888888888888888</v>
       </c>
       <c r="BR133">
         <f>AVERAGEIFS(BR$4:BR128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="BS133">
         <f>AVERAGEIFS(BS$4:BS128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BT133">
         <f>AVERAGEIFS(BT$4:BT128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="BU133">
         <f>AVERAGEIFS(BU$4:BU128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="BV133">
         <f>AVERAGEIFS(BV$4:BV128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>2.8571428571428572</v>
       </c>
       <c r="BW133">
         <f>AVERAGEIFS(BW$4:BW128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>2.1904761904761907</v>
       </c>
       <c r="BX133">
         <f>AVERAGEIFS(BX$4:BX128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>2.8571428571428572</v>
       </c>
       <c r="BY133">
         <f>AVERAGEIFS(BY$4:BY128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>2.8095238095238093</v>
       </c>
       <c r="BZ133">
         <f>AVERAGEIFS(BZ$4:BZ128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>2.7619047619047619</v>
       </c>
       <c r="CA133">
         <f>AVERAGEIFS(CA$4:CA128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>3.4285714285714284</v>
       </c>
       <c r="CB133">
         <f>AVERAGEIFS(CB$4:CB128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>2.8571428571428572</v>
       </c>
       <c r="CC133">
         <f>AVERAGEIFS(CC$4:CC128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="CD133">
         <f>AVERAGEIFS(CD$4:CD128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="CE133">
         <f>AVERAGEIFS(CE$4:CE128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3.5</v>
+        <v>3.36</v>
       </c>
       <c r="CF133">
         <f>AVERAGEIFS(CF$4:CF128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>3.16</v>
       </c>
       <c r="CG133">
         <f>AVERAGEIFS(CG$4:CG128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2.5</v>
+        <v>2.96</v>
       </c>
       <c r="CH133">
         <f>AVERAGEIFS(CH$4:CH128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
@@ -18926,453 +18925,453 @@
       </c>
       <c r="CI133">
         <f>AVERAGEIFS(CI$4:CI128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="CJ133">
         <f>AVERAGEIFS(CJ$4:CJ128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3.3333333333333335</v>
+        <v>2.6190476190476191</v>
       </c>
       <c r="CK133">
         <f>AVERAGEIFS(CK$4:CK128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3.3333333333333335</v>
+        <v>2.1904761904761907</v>
       </c>
       <c r="CL133">
         <f>AVERAGEIFS(CL$4:CL128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="CM133">
         <f>AVERAGEIFS(CM$4:CM128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>2.5714285714285716</v>
       </c>
       <c r="CN133">
         <f>AVERAGEIFS(CN$4:CN128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3.3333333333333335</v>
+        <v>3</v>
       </c>
       <c r="CO133">
         <f>AVERAGEIFS(CO$4:CO128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>2.9523809523809526</v>
       </c>
       <c r="CP133">
         <f>AVERAGEIFS(CP$4:CP128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2.6666666666666665</v>
+        <v>2.4761904761904763</v>
       </c>
       <c r="CQ133">
         <f>AVERAGEIFS(CQ$4:CQ128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>2.9545454545454546</v>
       </c>
       <c r="CR133">
         <f>AVERAGEIFS(CR$4:CR128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="CS133">
         <f>AVERAGEIFS(CS$4:CS128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>3.0454545454545454</v>
       </c>
       <c r="CT133">
         <f>AVERAGEIFS(CT$4:CT128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>3.0454545454545454</v>
       </c>
       <c r="CU133">
         <f>AVERAGEIFS(CU$4:CU128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>1</v>
+        <v>2.7727272727272729</v>
       </c>
       <c r="CV133">
         <f>AVERAGEIFS(CV$4:CV128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>3.0454545454545454</v>
       </c>
       <c r="CW133">
         <f>AVERAGEIFS(CW$4:CW128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>2.9545454545454546</v>
       </c>
       <c r="CX133">
         <f>AVERAGEIFS(CX$4:CX128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4.0714285714285712</v>
+        <v>3.2879999999999998</v>
       </c>
       <c r="CY133">
         <f>AVERAGEIFS(CY$4:CY128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3.4285714285714284</v>
+        <v>2.7679999999999998</v>
       </c>
       <c r="CZ133">
         <f>AVERAGEIFS(CZ$4:CZ128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4.1428571428571432</v>
+        <v>3.2639999999999998</v>
       </c>
       <c r="DA133">
         <f>AVERAGEIFS(DA$4:DA128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3.2857142857142856</v>
+        <v>2.7280000000000002</v>
       </c>
       <c r="DB133">
         <f>AVERAGEIFS(DB$4:DB128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3.8571428571428572</v>
+        <v>3.3759999999999999</v>
       </c>
     </row>
     <row r="134" spans="1:106" x14ac:dyDescent="0.2">
       <c r="N134" t="s">
-        <v>267</v>
+        <v>643</v>
       </c>
       <c r="O134" t="s">
-        <v>268</v>
+        <v>643</v>
       </c>
       <c r="P134" t="s">
-        <v>274</v>
+        <v>643</v>
       </c>
       <c r="Q134" t="s">
         <v>601</v>
       </c>
       <c r="R134" s="6">
         <f>COUNTIFS(R$4:R128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="S134" s="6">
         <f>COUNTIFS(S$4:S128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="T134" s="6">
         <f>COUNTIFS(T$4:T128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="U134" s="6">
         <f>COUNTIFS(U$4:U128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="V134" s="6">
         <f>COUNTIFS(V$4:V128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="W134" s="6">
         <f>COUNTIFS(W$4:W128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="X134" s="6">
         <f>COUNTIFS(X$4:X128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="Y134" s="6">
         <f>COUNTIFS(Y$4:Y128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="Z134" s="6">
         <f>COUNTIFS(Z$4:Z128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AA134" s="6">
         <f>COUNTIFS(AA$4:AA128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AB134" s="6">
         <f>COUNTIFS(AB$4:AB128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AC134" s="6">
         <f>COUNTIFS(AC$4:AC128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AD134" s="6">
         <f>COUNTIFS(AD$4:AD128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AE134" s="6">
         <f>COUNTIFS(AE$4:AE128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AF134" s="6">
         <f>COUNTIFS(AF$4:AF128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AG134" s="6">
         <f>COUNTIFS(AG$4:AG128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AH134" s="6">
         <f>COUNTIFS(AH$4:AH128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AI134" s="6">
         <f>COUNTIFS(AI$4:AI128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AJ134" s="6">
         <f>COUNTIFS(AJ$4:AJ128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AK134" s="6">
         <f>COUNTIFS(AK$4:AK128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AL134" s="6">
         <f>COUNTIFS(AL$4:AL128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AM134" s="6">
         <f>COUNTIFS(AM$4:AM128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="AN134" s="6">
         <f>COUNTIFS(AN$4:AN128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="AO134" s="6">
         <f>COUNTIFS(AO$4:AO128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="AP134" s="6">
         <f>COUNTIFS(AP$4:AP128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="AQ134" s="6">
         <f>COUNTIFS(AQ$4:AQ128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="AR134" s="6">
         <f>COUNTIFS(AR$4:AR128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="AS134" s="6">
         <f>COUNTIFS(AS$4:AS128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="AT134" s="6">
         <f>COUNTIFS(AT$4:AT128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="AU134" s="6">
         <f>COUNTIFS(AU$4:AU128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="AV134" s="6">
         <f>COUNTIFS(AV$4:AV128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="AW134" s="6">
         <f>COUNTIFS(AW$4:AW128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="AX134" s="6">
         <f>COUNTIFS(AX$4:AX128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="AY134" s="6">
         <f>COUNTIFS(AY$4:AY128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="AZ134" s="6">
         <f>COUNTIFS(AZ$4:AZ128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="BA134" s="6">
         <f>COUNTIFS(BA$4:BA128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="BB134" s="6">
         <f>COUNTIFS(BB$4:BB128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="BC134" s="6">
         <f>COUNTIFS(BC$4:BC128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="BD134" s="6">
         <f>COUNTIFS(BD$4:BD128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="BE134" s="6">
         <f>COUNTIFS(BE$4:BE128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="BF134" s="6">
         <f>COUNTIFS(BF$4:BF128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="BG134" s="6">
         <f>COUNTIFS(BG$4:BG128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="BH134" s="6">
         <f>COUNTIFS(BH$4:BH128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="BI134" s="6">
         <f>COUNTIFS(BI$4:BI128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="BJ134" s="6">
         <f>COUNTIFS(BJ$4:BJ128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="BK134" s="6">
         <f>COUNTIFS(BK$4:BK128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="BL134" s="6">
         <f>COUNTIFS(BL$4:BL128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="BM134" s="6">
         <f>COUNTIFS(BM$4:BM128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="BN134" s="6">
         <f>COUNTIFS(BN$4:BN128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="BO134" s="6">
         <f>COUNTIFS(BO$4:BO128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="BP134" s="6">
         <f>COUNTIFS(BP$4:BP128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="BQ134" s="6">
         <f>COUNTIFS(BQ$4:BQ128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="BR134" s="6">
         <f>COUNTIFS(BR$4:BR128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="BS134" s="6">
         <f>COUNTIFS(BS$4:BS128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="BT134" s="6">
         <f>COUNTIFS(BT$4:BT128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="BU134" s="6">
         <f>COUNTIFS(BU$4:BU128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="BV134" s="6">
         <f>COUNTIFS(BV$4:BV128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="BW134" s="6">
         <f>COUNTIFS(BW$4:BW128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="BX134" s="6">
         <f>COUNTIFS(BX$4:BX128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="BY134" s="6">
         <f>COUNTIFS(BY$4:BY128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="BZ134" s="6">
         <f>COUNTIFS(BZ$4:BZ128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="CA134" s="6">
         <f>COUNTIFS(CA$4:CA128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="CB134" s="6">
         <f>COUNTIFS(CB$4:CB128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="CC134" s="6">
         <f>COUNTIFS(CC$4:CC128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="CD134" s="6">
         <f>COUNTIFS(CD$4:CD128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="CE134" s="6">
         <f>COUNTIFS(CE$4:CE128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="CF134" s="6">
         <f>COUNTIFS(CF$4:CF128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="CG134" s="6">
         <f>COUNTIFS(CG$4:CG128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="CH134" s="6">
         <f>COUNTIFS(CH$4:CH128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="CI134" s="6">
         <f>COUNTIFS(CI$4:CI128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="CJ134" s="6">
         <f>COUNTIFS(CJ$4:CJ128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="CK134" s="6">
         <f>COUNTIFS(CK$4:CK128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="CL134" s="6">
         <f>COUNTIFS(CL$4:CL128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="CM134" s="6">
         <f>COUNTIFS(CM$4:CM128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="CN134" s="6">
         <f>COUNTIFS(CN$4:CN128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="CO134" s="6">
         <f>COUNTIFS(CO$4:CO128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="CP134" s="6">
         <f>COUNTIFS(CP$4:CP128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="CQ134" s="6">
         <f>COUNTIFS(CQ$4:CQ128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="CR134" s="6">
         <f>COUNTIFS(CR$4:CR128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="CS134" s="6">
         <f>COUNTIFS(CS$4:CS128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="CT134" s="6">
         <f>COUNTIFS(CT$4:CT128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="CU134" s="6">
         <f>COUNTIFS(CU$4:CU128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="CV134" s="6">
         <f>COUNTIFS(CV$4:CV128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="CW134" s="6">
         <f>COUNTIFS(CW$4:CW128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="CX134" s="6">
         <f>COUNTIFS(CX$4:CX128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="CY134" s="6">
         <f>COUNTIFS(CY$4:CY128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="CZ134" s="6">
         <f>COUNTIFS(CZ$4:CZ128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="DA134" s="6">
         <f>COUNTIFS(DA$4:DA128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="DB134" s="6">
         <f>COUNTIFS(DB$4:DB128,"&lt;&gt;",$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>14</v>
+        <v>125</v>
       </c>
     </row>
     <row r="135" spans="1:106" x14ac:dyDescent="0.2">
@@ -19389,7 +19388,7 @@
       </c>
       <c r="T135" s="6">
         <f>_xlfn.MAXIFS(T$4:T128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U135" s="6">
         <f>_xlfn.MAXIFS(U$4:U128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
@@ -19397,7 +19396,7 @@
       </c>
       <c r="V135" s="6">
         <f>_xlfn.MAXIFS(V$4:V128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W135" s="6">
         <f>_xlfn.MAXIFS(W$4:W128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
@@ -19405,7 +19404,7 @@
       </c>
       <c r="X135" s="6">
         <f>_xlfn.MAXIFS(X$4:X128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y135" s="6">
         <f>_xlfn.MAXIFS(Y$4:Y128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
@@ -19425,11 +19424,11 @@
       </c>
       <c r="AC135" s="6">
         <f>_xlfn.MAXIFS(AC$4:AC128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD135" s="6">
         <f>_xlfn.MAXIFS(AD$4:AD128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE135" s="6">
         <f>_xlfn.MAXIFS(AE$4:AE128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
@@ -19437,11 +19436,11 @@
       </c>
       <c r="AF135" s="6">
         <f>_xlfn.MAXIFS(AF$4:AF128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG135" s="6">
         <f>_xlfn.MAXIFS(AG$4:AG128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH135" s="6">
         <f>_xlfn.MAXIFS(AH$4:AH128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
@@ -19449,11 +19448,11 @@
       </c>
       <c r="AI135" s="6">
         <f>_xlfn.MAXIFS(AI$4:AI128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ135" s="6">
         <f>_xlfn.MAXIFS(AJ$4:AJ128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK135" s="6">
         <f>_xlfn.MAXIFS(AK$4:AK128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
@@ -19461,7 +19460,7 @@
       </c>
       <c r="AL135" s="6">
         <f>_xlfn.MAXIFS(AL$4:AL128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM135" s="6">
         <f>_xlfn.MAXIFS(AM$4:AM128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
@@ -19469,15 +19468,15 @@
       </c>
       <c r="AN135" s="6">
         <f>_xlfn.MAXIFS(AN$4:AN128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AO135" s="6">
         <f>_xlfn.MAXIFS(AO$4:AO128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP135" s="6">
         <f>_xlfn.MAXIFS(AP$4:AP128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ135" s="6">
         <f>_xlfn.MAXIFS(AQ$4:AQ128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
@@ -19485,31 +19484,31 @@
       </c>
       <c r="AR135" s="6">
         <f>_xlfn.MAXIFS(AR$4:AR128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AS135" s="6">
         <f>_xlfn.MAXIFS(AS$4:AS128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT135" s="6">
         <f>_xlfn.MAXIFS(AT$4:AT128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU135" s="6">
         <f>_xlfn.MAXIFS(AU$4:AU128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV135" s="6">
         <f>_xlfn.MAXIFS(AV$4:AV128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW135" s="6">
         <f>_xlfn.MAXIFS(AW$4:AW128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX135" s="6">
         <f>_xlfn.MAXIFS(AX$4:AX128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY135" s="6">
         <f>_xlfn.MAXIFS(AY$4:AY128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
@@ -19517,7 +19516,7 @@
       </c>
       <c r="AZ135" s="6">
         <f>_xlfn.MAXIFS(AZ$4:AZ128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA135" s="6">
         <f>_xlfn.MAXIFS(BA$4:BA128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
@@ -19529,11 +19528,11 @@
       </c>
       <c r="BC135" s="6">
         <f>_xlfn.MAXIFS(BC$4:BC128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD135" s="6">
         <f>_xlfn.MAXIFS(BD$4:BD128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BE135" s="6">
         <f>_xlfn.MAXIFS(BE$4:BE128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
@@ -19569,7 +19568,7 @@
       </c>
       <c r="BM135" s="6">
         <f>_xlfn.MAXIFS(BM$4:BM128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BN135" s="6">
         <f>_xlfn.MAXIFS(BN$4:BN128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
@@ -19577,11 +19576,11 @@
       </c>
       <c r="BO135" s="6">
         <f>_xlfn.MAXIFS(BO$4:BO128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BP135" s="6">
         <f>_xlfn.MAXIFS(BP$4:BP128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BQ135" s="6">
         <f>_xlfn.MAXIFS(BQ$4:BQ128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
@@ -19589,19 +19588,19 @@
       </c>
       <c r="BR135" s="6">
         <f>_xlfn.MAXIFS(BR$4:BR128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BS135" s="6">
         <f>_xlfn.MAXIFS(BS$4:BS128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT135" s="6">
         <f>_xlfn.MAXIFS(BT$4:BT128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BU135" s="6">
         <f>_xlfn.MAXIFS(BU$4:BU128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BV135" s="6">
         <f>_xlfn.MAXIFS(BV$4:BV128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
@@ -19621,15 +19620,15 @@
       </c>
       <c r="BZ135" s="6">
         <f>_xlfn.MAXIFS(BZ$4:BZ128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CA135" s="6">
         <f>_xlfn.MAXIFS(CA$4:CA128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CB135" s="6">
         <f>_xlfn.MAXIFS(CB$4:CB128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CC135" s="6">
         <f>_xlfn.MAXIFS(CC$4:CC128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
@@ -19637,15 +19636,15 @@
       </c>
       <c r="CD135" s="6">
         <f>_xlfn.MAXIFS(CD$4:CD128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CE135" s="6">
         <f>_xlfn.MAXIFS(CE$4:CE128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CF135" s="6">
         <f>_xlfn.MAXIFS(CF$4:CF128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CG135" s="6">
         <f>_xlfn.MAXIFS(CG$4:CG128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
@@ -19653,11 +19652,11 @@
       </c>
       <c r="CH135" s="6">
         <f>_xlfn.MAXIFS(CH$4:CH128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CI135" s="6">
         <f>_xlfn.MAXIFS(CI$4:CI128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CJ135" s="6">
         <f>_xlfn.MAXIFS(CJ$4:CJ128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
@@ -19669,7 +19668,7 @@
       </c>
       <c r="CL135" s="6">
         <f>_xlfn.MAXIFS(CL$4:CL128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CM135" s="6">
         <f>_xlfn.MAXIFS(CM$4:CM128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
@@ -19677,11 +19676,11 @@
       </c>
       <c r="CN135" s="6">
         <f>_xlfn.MAXIFS(CN$4:CN128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CO135" s="6">
         <f>_xlfn.MAXIFS(CO$4:CO128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CP135" s="6">
         <f>_xlfn.MAXIFS(CP$4:CP128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
@@ -19693,19 +19692,19 @@
       </c>
       <c r="CR135" s="6">
         <f>_xlfn.MAXIFS(CR$4:CR128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CS135" s="6">
         <f>_xlfn.MAXIFS(CS$4:CS128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CT135" s="6">
         <f>_xlfn.MAXIFS(CT$4:CT128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CU135" s="6">
         <f>_xlfn.MAXIFS(CU$4:CU128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CV135" s="6">
         <f>_xlfn.MAXIFS(CV$4:CV128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
@@ -19713,7 +19712,7 @@
       </c>
       <c r="CW135" s="6">
         <f>_xlfn.MAXIFS(CW$4:CW128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CX135" s="6">
         <f>_xlfn.MAXIFS(CX$4:CX128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
@@ -19751,111 +19750,111 @@
       </c>
       <c r="R136" s="6">
         <f>_xlfn.MINIFS(R$4:R128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S136" s="6">
         <f>_xlfn.MINIFS(S$4:S128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T136" s="6">
         <f>_xlfn.MINIFS(T$4:T128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U136" s="6">
         <f>_xlfn.MINIFS(U$4:U128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V136" s="6">
         <f>_xlfn.MINIFS(V$4:V128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W136" s="6">
         <f>_xlfn.MINIFS(W$4:W128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X136" s="6">
         <f>_xlfn.MINIFS(X$4:X128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y136" s="6">
         <f>_xlfn.MINIFS(Y$4:Y128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Z136" s="6">
         <f>_xlfn.MINIFS(Z$4:Z128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA136" s="6">
         <f>_xlfn.MINIFS(AA$4:AA128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB136" s="6">
         <f>_xlfn.MINIFS(AB$4:AB128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AC136" s="6">
         <f>_xlfn.MINIFS(AC$4:AC128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD136" s="6">
         <f>_xlfn.MINIFS(AD$4:AD128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE136" s="6">
         <f>_xlfn.MINIFS(AE$4:AE128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF136" s="6">
         <f>_xlfn.MINIFS(AF$4:AF128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG136" s="6">
         <f>_xlfn.MINIFS(AG$4:AG128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH136" s="6">
         <f>_xlfn.MINIFS(AH$4:AH128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI136" s="6">
         <f>_xlfn.MINIFS(AI$4:AI128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ136" s="6">
         <f>_xlfn.MINIFS(AJ$4:AJ128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK136" s="6">
         <f>_xlfn.MINIFS(AK$4:AK128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AL136" s="6">
         <f>_xlfn.MINIFS(AL$4:AL128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM136" s="6">
         <f>_xlfn.MINIFS(AM$4:AM128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AN136" s="6">
         <f>_xlfn.MINIFS(AN$4:AN128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO136" s="6">
         <f>_xlfn.MINIFS(AO$4:AO128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP136" s="6">
         <f>_xlfn.MINIFS(AP$4:AP128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AQ136" s="6">
         <f>_xlfn.MINIFS(AQ$4:AQ128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR136" s="6">
         <f>_xlfn.MINIFS(AR$4:AR128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS136" s="6">
         <f>_xlfn.MINIFS(AS$4:AS128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
@@ -19863,35 +19862,35 @@
       </c>
       <c r="AT136" s="6">
         <f>_xlfn.MINIFS(AT$4:AT128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AU136" s="6">
         <f>_xlfn.MINIFS(AU$4:AU128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV136" s="6">
         <f>_xlfn.MINIFS(AV$4:AV128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW136" s="6">
         <f>_xlfn.MINIFS(AW$4:AW128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX136" s="6">
         <f>_xlfn.MINIFS(AX$4:AX128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY136" s="6">
         <f>_xlfn.MINIFS(AY$4:AY128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AZ136" s="6">
         <f>_xlfn.MINIFS(AZ$4:AZ128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BA136" s="6">
         <f>_xlfn.MINIFS(BA$4:BA128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BB136" s="6">
         <f>_xlfn.MINIFS(BB$4:BB128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
@@ -19899,15 +19898,15 @@
       </c>
       <c r="BC136" s="6">
         <f>_xlfn.MINIFS(BC$4:BC128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD136" s="6">
         <f>_xlfn.MINIFS(BD$4:BD128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BE136" s="6">
         <f>_xlfn.MINIFS(BE$4:BE128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF136" s="6">
         <f>_xlfn.MINIFS(BF$4:BF128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
@@ -19915,11 +19914,11 @@
       </c>
       <c r="BG136" s="6">
         <f>_xlfn.MINIFS(BG$4:BG128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BH136" s="6">
         <f>_xlfn.MINIFS(BH$4:BH128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BI136" s="6">
         <f>_xlfn.MINIFS(BI$4:BI128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
@@ -19927,43 +19926,43 @@
       </c>
       <c r="BJ136" s="6">
         <f>_xlfn.MINIFS(BJ$4:BJ128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BK136" s="6">
         <f>_xlfn.MINIFS(BK$4:BK128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BL136" s="6">
         <f>_xlfn.MINIFS(BL$4:BL128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BM136" s="6">
         <f>_xlfn.MINIFS(BM$4:BM128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BN136" s="6">
         <f>_xlfn.MINIFS(BN$4:BN128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BO136" s="6">
         <f>_xlfn.MINIFS(BO$4:BO128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BP136" s="6">
         <f>_xlfn.MINIFS(BP$4:BP128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BQ136" s="6">
         <f>_xlfn.MINIFS(BQ$4:BQ128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BR136" s="6">
         <f>_xlfn.MINIFS(BR$4:BR128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BS136" s="6">
         <f>_xlfn.MINIFS(BS$4:BS128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BT136" s="6">
         <f>_xlfn.MINIFS(BT$4:BT128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
@@ -19971,51 +19970,51 @@
       </c>
       <c r="BU136" s="6">
         <f>_xlfn.MINIFS(BU$4:BU128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BV136" s="6">
         <f>_xlfn.MINIFS(BV$4:BV128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BW136" s="6">
         <f>_xlfn.MINIFS(BW$4:BW128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BX136" s="6">
         <f>_xlfn.MINIFS(BX$4:BX128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BY136" s="6">
         <f>_xlfn.MINIFS(BY$4:BY128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BZ136" s="6">
         <f>_xlfn.MINIFS(BZ$4:BZ128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CA136" s="6">
         <f>_xlfn.MINIFS(CA$4:CA128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CB136" s="6">
         <f>_xlfn.MINIFS(CB$4:CB128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CC136" s="6">
         <f>_xlfn.MINIFS(CC$4:CC128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CD136" s="6">
         <f>_xlfn.MINIFS(CD$4:CD128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CE136" s="6">
         <f>_xlfn.MINIFS(CE$4:CE128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CF136" s="6">
         <f>_xlfn.MINIFS(CF$4:CF128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CG136" s="6">
         <f>_xlfn.MINIFS(CG$4:CG128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
@@ -20023,55 +20022,55 @@
       </c>
       <c r="CH136" s="6">
         <f>_xlfn.MINIFS(CH$4:CH128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CI136" s="6">
         <f>_xlfn.MINIFS(CI$4:CI128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CJ136" s="6">
         <f>_xlfn.MINIFS(CJ$4:CJ128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CK136" s="6">
         <f>_xlfn.MINIFS(CK$4:CK128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CL136" s="6">
         <f>_xlfn.MINIFS(CL$4:CL128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CM136" s="6">
         <f>_xlfn.MINIFS(CM$4:CM128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CN136" s="6">
         <f>_xlfn.MINIFS(CN$4:CN128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CO136" s="6">
         <f>_xlfn.MINIFS(CO$4:CO128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CP136" s="6">
         <f>_xlfn.MINIFS(CP$4:CP128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CQ136" s="6">
         <f>_xlfn.MINIFS(CQ$4:CQ128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CR136" s="6">
         <f>_xlfn.MINIFS(CR$4:CR128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CS136" s="6">
         <f>_xlfn.MINIFS(CS$4:CS128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CT136" s="6">
         <f>_xlfn.MINIFS(CT$4:CT128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CU136" s="6">
         <f>_xlfn.MINIFS(CU$4:CU128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
@@ -20079,23 +20078,23 @@
       </c>
       <c r="CV136" s="6">
         <f>_xlfn.MINIFS(CV$4:CV128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CW136" s="6">
         <f>_xlfn.MINIFS(CW$4:CW128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CX136" s="6">
         <f>_xlfn.MINIFS(CX$4:CX128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CY136" s="6">
         <f>_xlfn.MINIFS(CY$4:CY128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CZ136" s="6">
         <f>_xlfn.MINIFS(CZ$4:CZ128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DA136" s="6">
         <f>_xlfn.MINIFS(DA$4:DA128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
@@ -20103,7 +20102,7 @@
       </c>
       <c r="DB136" s="6">
         <f>_xlfn.MINIFS(DB$4:DB128,$DD$4:$DD128,$N134,$DE$4:$DE128,$O134,$DF$4:$DF128,$P134)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:106" x14ac:dyDescent="0.2">
@@ -20147,31 +20146,31 @@
       </c>
       <c r="R138" s="6">
         <f t="shared" ref="R138" si="0">R131+Y131+AF131+AM131+AT131+BA131+BH131+BO131+BV131+CC131+CJ131+CQ131</f>
-        <v>101</v>
+        <v>703</v>
       </c>
       <c r="S138" s="6">
         <f t="shared" ref="S138" si="1">S131+Z131+AG131+AN131+AU131+BB131+BI131+BP131+BW131+CD131+CK131+CR131</f>
-        <v>80</v>
+        <v>573</v>
       </c>
       <c r="T138" s="6">
         <f t="shared" ref="T138" si="2">T131+AA131+AH131+AO131+AV131+BC131+BJ131+BQ131+BX131+CE131+CL131+CS131</f>
-        <v>100</v>
+        <v>760</v>
       </c>
       <c r="U138" s="6">
         <f t="shared" ref="U138" si="3">U131+AB131+AI131+AP131+AW131+BD131+BK131+BR131+BY131+CF131+CM131+CT131</f>
-        <v>104</v>
+        <v>728</v>
       </c>
       <c r="V138" s="6">
         <f t="shared" ref="V138" si="4">V131+AC131+AJ131+AQ131+AX131+BE131+BL131+BS131+BZ131+CG131+CN131+CU131</f>
-        <v>89</v>
+        <v>726</v>
       </c>
       <c r="W138" s="6">
         <f t="shared" ref="W138" si="5">W131+AD131+AK131+AR131+AY131+BF131+BM131+BT131+CA131+CH131+CO131+CV131</f>
-        <v>95</v>
+        <v>820</v>
       </c>
       <c r="X138" s="6">
         <f t="shared" ref="X138" si="6">X131+AE131+AL131+AS131+AZ131+BG131+BN131+BU131+CB131+CI131+CP131+CW131</f>
-        <v>96</v>
+        <v>754</v>
       </c>
     </row>
     <row r="139" spans="1:106" x14ac:dyDescent="0.2">
@@ -20179,32 +20178,32 @@
         <v>619</v>
       </c>
       <c r="R139">
-        <f>R138/R140</f>
-        <v>3.6071428571428572</v>
+        <f t="shared" ref="R139:X139" si="7">R138/R140</f>
+        <v>2.8119999999999998</v>
       </c>
       <c r="S139">
-        <f>S138/S140</f>
-        <v>2.8571428571428572</v>
+        <f t="shared" si="7"/>
+        <v>2.2919999999999998</v>
       </c>
       <c r="T139">
-        <f>T138/T140</f>
-        <v>3.5714285714285716</v>
+        <f t="shared" si="7"/>
+        <v>3.04</v>
       </c>
       <c r="U139">
-        <f>U138/U140</f>
-        <v>3.7142857142857144</v>
+        <f t="shared" si="7"/>
+        <v>2.9119999999999999</v>
       </c>
       <c r="V139">
-        <f>V138/V140</f>
-        <v>3.1785714285714284</v>
+        <f t="shared" si="7"/>
+        <v>2.9039999999999999</v>
       </c>
       <c r="W139">
-        <f>W138/W140</f>
-        <v>3.3928571428571428</v>
+        <f t="shared" si="7"/>
+        <v>3.28</v>
       </c>
       <c r="X139">
-        <f>X138/X140</f>
-        <v>3.4285714285714284</v>
+        <f t="shared" si="7"/>
+        <v>3.016</v>
       </c>
     </row>
     <row r="140" spans="1:106" x14ac:dyDescent="0.2">
@@ -20212,32 +20211,32 @@
         <v>614</v>
       </c>
       <c r="R140" s="6">
-        <f>R134+Y134+AF134+AM134+AT134+BA134+BH134+BO134+BV134+CC134+CJ134+CQ134</f>
-        <v>28</v>
+        <f t="shared" ref="R140:X140" si="8">R134+Y134+AF134+AM134+AT134+BA134+BH134+BO134+BV134+CC134+CJ134+CQ134</f>
+        <v>250</v>
       </c>
       <c r="S140" s="6">
-        <f>S134+Z134+AG134+AN134+AU134+BB134+BI134+BP134+BW134+CD134+CK134+CR134</f>
-        <v>28</v>
+        <f t="shared" si="8"/>
+        <v>250</v>
       </c>
       <c r="T140" s="6">
-        <f>T134+AA134+AH134+AO134+AV134+BC134+BJ134+BQ134+BX134+CE134+CL134+CS134</f>
-        <v>28</v>
+        <f t="shared" si="8"/>
+        <v>250</v>
       </c>
       <c r="U140" s="6">
-        <f>U134+AB134+AI134+AP134+AW134+BD134+BK134+BR134+BY134+CF134+CM134+CT134</f>
-        <v>28</v>
+        <f t="shared" si="8"/>
+        <v>250</v>
       </c>
       <c r="V140" s="6">
-        <f>V134+AC134+AJ134+AQ134+AX134+BE134+BL134+BS134+BZ134+CG134+CN134+CU134</f>
-        <v>28</v>
+        <f t="shared" si="8"/>
+        <v>250</v>
       </c>
       <c r="W140" s="6">
-        <f>W134+AD134+AK134+AR134+AY134+BF134+BM134+BT134+CA134+CH134+CO134+CV134</f>
-        <v>28</v>
+        <f t="shared" si="8"/>
+        <v>250</v>
       </c>
       <c r="X140" s="6">
-        <f>X134+AE134+AL134+AS134+AZ134+BG134+BN134+BU134+CB134+CI134+CP134+CW134</f>
-        <v>28</v>
+        <f t="shared" si="8"/>
+        <v>250</v>
       </c>
     </row>
     <row r="141" spans="1:106" x14ac:dyDescent="0.2">
@@ -20245,32 +20244,32 @@
         <v>617</v>
       </c>
       <c r="R141" s="3">
-        <f>_xlfn.AGGREGATE(4,6,R133,Y133,AF133,AM133,AT133,BA133,BH133,BO133,BV133,CC133,CJ133,CQ133)</f>
-        <v>5</v>
+        <f t="shared" ref="R141:X141" si="9">_xlfn.AGGREGATE(4,6,R133,Y133,AF133,AM133,AT133,BA133,BH133,BO133,BV133,CC133,CJ133,CQ133)</f>
+        <v>3.25</v>
       </c>
       <c r="S141" s="3">
-        <f>_xlfn.AGGREGATE(4,6,S133,Z133,AG133,AN133,AU133,BB133,BI133,BP133,BW133,CD133,CK133,CR133)</f>
-        <v>5</v>
+        <f t="shared" si="9"/>
+        <v>3</v>
       </c>
       <c r="T141" s="3">
-        <f>_xlfn.AGGREGATE(4,6,T133,AA133,AH133,AO133,AV133,BC133,BJ133,BQ133,BX133,CE133,CL133,CS133)</f>
-        <v>5</v>
+        <f t="shared" si="9"/>
+        <v>3.5416666666666665</v>
       </c>
       <c r="U141" s="3">
-        <f>_xlfn.AGGREGATE(4,6,U133,AB133,AI133,AP133,AW133,BD133,BK133,BR133,BY133,CF133,CM133,CT133)</f>
-        <v>5</v>
+        <f t="shared" si="9"/>
+        <v>3.3333333333333335</v>
       </c>
       <c r="V141" s="3">
-        <f>_xlfn.AGGREGATE(4,6,V133,AC133,AJ133,AQ133,AX133,BE133,BL133,BS133,BZ133,CG133,CN133,CU133)</f>
-        <v>4</v>
+        <f t="shared" si="9"/>
+        <v>3.5</v>
       </c>
       <c r="W141" s="3">
-        <f>_xlfn.AGGREGATE(4,6,W133,AD133,AK133,AR133,AY133,BF133,BM133,BT133,CA133,CH133,CO133,CV133)</f>
-        <v>5</v>
+        <f t="shared" si="9"/>
+        <v>3.7619047619047619</v>
       </c>
       <c r="X141" s="3">
-        <f>_xlfn.AGGREGATE(4,6,X133,AE133,AL133,AS133,AZ133,BG133,BN133,BU133,CB133,CI133,CP133,CW133)</f>
-        <v>5</v>
+        <f t="shared" si="9"/>
+        <v>3.6666666666666665</v>
       </c>
     </row>
     <row r="142" spans="1:106" x14ac:dyDescent="0.2">
@@ -20278,32 +20277,32 @@
         <v>618</v>
       </c>
       <c r="R142" s="3">
-        <f>_xlfn.AGGREGATE(5,6,R133,Y133,AF133,AM133,AT133,BA133,BH133,BO133,BV133,CC133,CJ133,CQ133)</f>
-        <v>3</v>
+        <f t="shared" ref="R142:X142" si="10">_xlfn.AGGREGATE(5,6,R133,Y133,AF133,AM133,AT133,BA133,BH133,BO133,BV133,CC133,CJ133,CQ133)</f>
+        <v>2.4761904761904763</v>
       </c>
       <c r="S142" s="3">
-        <f>_xlfn.AGGREGATE(5,6,S133,Z133,AG133,AN133,AU133,BB133,BI133,BP133,BW133,CD133,CK133,CR133)</f>
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>1.8333333333333333</v>
       </c>
       <c r="T142" s="3">
-        <f>_xlfn.AGGREGATE(5,6,T133,AA133,AH133,AO133,AV133,BC133,BJ133,BQ133,BX133,CE133,CL133,CS133)</f>
-        <v>3</v>
+        <f t="shared" si="10"/>
+        <v>2.6666666666666665</v>
       </c>
       <c r="U142" s="3">
-        <f>_xlfn.AGGREGATE(5,6,U133,AB133,AI133,AP133,AW133,BD133,BK133,BR133,BY133,CF133,CM133,CT133)</f>
-        <v>3</v>
+        <f t="shared" si="10"/>
+        <v>2.5</v>
       </c>
       <c r="V142" s="3">
-        <f>_xlfn.AGGREGATE(5,6,V133,AC133,AJ133,AQ133,AX133,BE133,BL133,BS133,BZ133,CG133,CN133,CU133)</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>2.5</v>
       </c>
       <c r="W142" s="3">
-        <f>_xlfn.AGGREGATE(5,6,W133,AD133,AK133,AR133,AY133,BF133,BM133,BT133,CA133,CH133,CO133,CV133)</f>
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>2.9523809523809526</v>
       </c>
       <c r="X142" s="3">
-        <f>_xlfn.AGGREGATE(5,6,X133,AE133,AL133,AS133,AZ133,BG133,BN133,BU133,CB133,CI133,CP133,CW133)</f>
-        <v>2.5</v>
+        <f t="shared" si="10"/>
+        <v>2.4761904761904763</v>
       </c>
     </row>
     <row r="143" spans="1:106" x14ac:dyDescent="0.2">
@@ -20311,31 +20310,31 @@
         <v>615</v>
       </c>
       <c r="R143" s="6">
-        <f>MAX(R135,Y135,AF135,AM135,AT135,BA135,BH135,BO135,BV135,CC135,CJ135,CQ135)</f>
+        <f t="shared" ref="R143:X143" si="11">MAX(R135,Y135,AF135,AM135,AT135,BA135,BH135,BO135,BV135,CC135,CJ135,CQ135)</f>
         <v>5</v>
       </c>
       <c r="S143" s="6">
-        <f>MAX(S135,Z135,AG135,AN135,AU135,BB135,BI135,BP135,BW135,CD135,CK135,CR135)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="T143" s="6">
-        <f>MAX(T135,AA135,AH135,AO135,AV135,BC135,BJ135,BQ135,BX135,CE135,CL135,CS135)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="U143" s="6">
-        <f>MAX(U135,AB135,AI135,AP135,AW135,BD135,BK135,BR135,BY135,CF135,CM135,CT135)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="V143" s="6">
-        <f>MAX(V135,AC135,AJ135,AQ135,AX135,BE135,BL135,BS135,BZ135,CG135,CN135,CU135)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="W143" s="6">
-        <f>MAX(W135,AD135,AK135,AR135,AY135,BF135,BM135,BT135,CA135,CH135,CO135,CV135)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="X143" s="3">
-        <f>MAX(X135,AE135,AL135,AS135,AZ135,BG135,BN135,BU135,CB135,CI135,CP135,CW135)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
     </row>
@@ -20344,31 +20343,31 @@
         <v>616</v>
       </c>
       <c r="R144" s="6">
-        <f>MIN(R136,Y136,AF136,AM136,AT136,BA136,BH136,BO136,BV136,CC136,CJ136,CQ136)</f>
-        <v>3</v>
+        <f t="shared" ref="R144:X144" si="12">MIN(R136,Y136,AF136,AM136,AT136,BA136,BH136,BO136,BV136,CC136,CJ136,CQ136)</f>
+        <v>1</v>
       </c>
       <c r="S144" s="6">
-        <f>MIN(S136,Z136,AG136,AN136,AU136,BB136,BI136,BP136,BW136,CD136,CK136,CR136)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="T144" s="6">
-        <f>MIN(T136,AA136,AH136,AO136,AV136,BC136,BJ136,BQ136,BX136,CE136,CL136,CS136)</f>
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="U144" s="6">
-        <f>MIN(U136,AB136,AI136,AP136,AW136,BD136,BK136,BR136,BY136,CF136,CM136,CT136)</f>
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="V144" s="6">
-        <f>MIN(V136,AC136,AJ136,AQ136,AX136,BE136,BL136,BS136,BZ136,CG136,CN136,CU136)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W144" s="6">
-        <f>MIN(W136,AD136,AK136,AR136,AY136,BF136,BM136,BT136,CA136,CH136,CO136,CV136)</f>
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="X144" s="3">
-        <f>MIN(X136,AE136,AL136,AS136,AZ136,BG136,BN136,BU136,CB136,CI136,CP136,CW136)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -20420,156 +20419,156 @@
       </c>
     </row>
     <row r="152" spans="16:29" x14ac:dyDescent="0.2">
-      <c r="P152" s="7" t="s">
+      <c r="P152" s="11" t="s">
         <v>599</v>
       </c>
-      <c r="Q152" s="8" t="s">
+      <c r="Q152" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="R152" s="9">
+      <c r="R152" s="8">
         <v>2.9285714285714284</v>
       </c>
-      <c r="S152" s="9">
+      <c r="S152" s="8">
         <v>2.3571428571428572</v>
       </c>
-      <c r="T152" s="9">
+      <c r="T152" s="8">
         <v>2.9285714285714284</v>
       </c>
-      <c r="U152" s="9">
-        <v>3</v>
-      </c>
-      <c r="V152" s="9">
+      <c r="U152" s="8">
+        <v>3</v>
+      </c>
+      <c r="V152" s="8">
         <v>2.6428571428571428</v>
       </c>
-      <c r="W152" s="9">
-        <v>4</v>
-      </c>
-      <c r="X152" s="9">
-        <v>3</v>
-      </c>
-      <c r="Y152" s="9">
+      <c r="W152" s="8">
+        <v>4</v>
+      </c>
+      <c r="X152" s="8">
+        <v>3</v>
+      </c>
+      <c r="Y152" s="8">
         <v>3.5324675324675323</v>
       </c>
-      <c r="Z152" s="9">
+      <c r="Z152" s="8">
         <v>2.8701298701298703</v>
       </c>
-      <c r="AA152" s="9">
+      <c r="AA152" s="8">
         <v>3.4025974025974026</v>
       </c>
-      <c r="AB152" s="9">
+      <c r="AB152" s="8">
         <v>2.883116883116883</v>
       </c>
-      <c r="AC152" s="9">
+      <c r="AC152" s="8">
         <v>3.5584415584415585</v>
       </c>
     </row>
     <row r="153" spans="16:29" x14ac:dyDescent="0.2">
-      <c r="P153" s="10"/>
-      <c r="Q153" s="11" t="s">
+      <c r="P153" s="12"/>
+      <c r="Q153" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="R153" s="12">
+      <c r="R153" s="10">
         <v>3.4</v>
       </c>
-      <c r="S153" s="12">
+      <c r="S153" s="10">
         <v>3.1111111111111112</v>
       </c>
-      <c r="T153" s="12">
+      <c r="T153" s="10">
         <v>3.7333333333333334</v>
       </c>
-      <c r="U153" s="12">
+      <c r="U153" s="10">
         <v>3.5333333333333332</v>
       </c>
-      <c r="V153" s="12">
+      <c r="V153" s="10">
         <v>3.3333333333333335</v>
       </c>
-      <c r="W153" s="12">
-        <v>4</v>
-      </c>
-      <c r="X153" s="12">
+      <c r="W153" s="10">
+        <v>4</v>
+      </c>
+      <c r="X153" s="10">
         <v>4.083333333333333</v>
       </c>
-      <c r="Y153" s="11"/>
-      <c r="Z153" s="11"/>
-      <c r="AA153" s="11"/>
-      <c r="AB153" s="11"/>
-      <c r="AC153" s="11"/>
+      <c r="Y153" s="9"/>
+      <c r="Z153" s="9"/>
+      <c r="AA153" s="9"/>
+      <c r="AB153" s="9"/>
+      <c r="AC153" s="9"/>
     </row>
     <row r="154" spans="16:29" x14ac:dyDescent="0.2">
       <c r="P154" s="13" t="s">
         <v>639</v>
       </c>
-      <c r="Q154" s="8" t="s">
+      <c r="Q154" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="R154" s="9">
-        <v>2</v>
-      </c>
-      <c r="S154" s="9">
-        <v>2</v>
-      </c>
-      <c r="T154" s="9">
+      <c r="R154" s="8">
+        <v>2</v>
+      </c>
+      <c r="S154" s="8">
+        <v>2</v>
+      </c>
+      <c r="T154" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="U154" s="9">
+      <c r="U154" s="8">
         <v>2.4</v>
       </c>
-      <c r="V154" s="9">
+      <c r="V154" s="8">
         <v>2.8</v>
       </c>
-      <c r="W154" s="9">
+      <c r="W154" s="8">
         <v>2.8</v>
       </c>
-      <c r="X154" s="9">
-        <v>2</v>
-      </c>
-      <c r="Y154" s="9">
+      <c r="X154" s="8">
+        <v>2</v>
+      </c>
+      <c r="Y154" s="8">
         <v>2.8958333333333335</v>
       </c>
-      <c r="Z154" s="9">
+      <c r="Z154" s="8">
         <v>2.6041666666666665</v>
       </c>
-      <c r="AA154" s="9">
+      <c r="AA154" s="8">
         <v>3.0416666666666665</v>
       </c>
-      <c r="AB154" s="9">
+      <c r="AB154" s="8">
         <v>2.4791666666666665</v>
       </c>
-      <c r="AC154" s="9">
+      <c r="AC154" s="8">
         <v>3.0833333333333335</v>
       </c>
     </row>
     <row r="155" spans="16:29" x14ac:dyDescent="0.2">
       <c r="P155" s="14"/>
-      <c r="Q155" s="11" t="s">
+      <c r="Q155" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="R155" s="12">
+      <c r="R155" s="10">
         <v>3.2857142857142856</v>
       </c>
-      <c r="S155" s="12">
+      <c r="S155" s="10">
         <v>2.875</v>
       </c>
-      <c r="T155" s="12">
+      <c r="T155" s="10">
         <v>3.2222222222222223</v>
       </c>
-      <c r="U155" s="12">
+      <c r="U155" s="10">
         <v>3.3333333333333335</v>
       </c>
-      <c r="V155" s="12">
+      <c r="V155" s="10">
         <v>3.7142857142857144</v>
       </c>
-      <c r="W155" s="12">
+      <c r="W155" s="10">
         <v>3.7777777777777777</v>
       </c>
-      <c r="X155" s="12">
+      <c r="X155" s="10">
         <v>3.2</v>
       </c>
-      <c r="Y155" s="12"/>
-      <c r="Z155" s="12"/>
-      <c r="AA155" s="12"/>
-      <c r="AB155" s="12"/>
-      <c r="AC155" s="12"/>
+      <c r="Y155" s="10"/>
+      <c r="Z155" s="10"/>
+      <c r="AA155" s="10"/>
+      <c r="AB155" s="10"/>
+      <c r="AC155" s="10"/>
     </row>
     <row r="159" spans="16:29" x14ac:dyDescent="0.2">
       <c r="R159" s="3"/>
